--- a/統計管制與最佳化方法概論/homework/my_homework/HW15/hw_15.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW15/hw_15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D026537B-76BF-467C-AB38-2BAE396BACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B4873B-5CE9-484F-AE6F-9101ADF9005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="2780" windowWidth="19200" windowHeight="11460" activeTab="1" xr2:uid="{084AAEBC-D57F-44A1-9A8E-889D79D7B20C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{084AAEBC-D57F-44A1-9A8E-889D79D7B20C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="42">
   <si>
     <t>x1</t>
   </si>
@@ -208,6 +208,9 @@
   <si>
     <t>BBD</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2^2</t>
   </si>
 </sst>
 </file>
@@ -617,18 +620,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8981F7A3-7FB5-47B3-AD02-38B5DEB3ABB0}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:AB39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="76" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -642,7 +645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -656,7 +659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -670,7 +673,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -684,7 +687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -698,7 +701,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -715,8 +718,11 @@
       <c r="H6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -731,7 +737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -749,8 +755,12 @@
         <v>12</v>
       </c>
       <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="T8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -770,8 +780,14 @@
       <c r="I9" s="1">
         <v>0.81944075109204972</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="T9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.79166290485038882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -790,8 +806,14 @@
       <c r="I10" s="1">
         <v>0.67148314455030256</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="T10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0.62673015491615569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -810,8 +832,14 @@
       <c r="I11" s="1">
         <v>0.4368282478005186</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="T11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U11" s="1">
+        <v>4.6137464430818413E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -830,8 +858,14 @@
       <c r="I12" s="1">
         <v>4.6965476995852695</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U12" s="1">
+        <v>6.8216059219062135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -850,8 +884,14 @@
       <c r="I13" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="T13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U13" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -865,12 +905,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="T15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -908,8 +951,24 @@
       <c r="M16" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -955,8 +1014,26 @@
       <c r="M17" s="1">
         <v>0.10153652057592273</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="T17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="1">
+        <v>5</v>
+      </c>
+      <c r="V17" s="1">
+        <v>234.39707793864221</v>
+      </c>
+      <c r="W17" s="1">
+        <v>46.879415587728445</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1.0074162108252469</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0.53247657017598582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -998,8 +1075,22 @@
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="1">
+        <v>3</v>
+      </c>
+      <c r="V18" s="1">
+        <v>139.60292206135779</v>
+      </c>
+      <c r="W18" s="1">
+        <v>46.534307353785927</v>
+      </c>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1039,8 +1130,20 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="2">
+        <v>8</v>
+      </c>
+      <c r="V19" s="2">
+        <v>374</v>
+      </c>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1069,7 +1172,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1122,8 +1225,33 @@
       <c r="P21" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="T21" s="3"/>
+      <c r="U21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1178,8 +1306,35 @@
       <c r="P22" s="1">
         <v>46.16656215327545</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="T22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" s="1">
+        <v>40.999999999999993</v>
+      </c>
+      <c r="V22" s="1">
+        <v>6.8216059219062153</v>
+      </c>
+      <c r="W22" s="1">
+        <v>6.0103149418726662</v>
+      </c>
+      <c r="X22" s="1">
+        <v>9.227989661368844E-3</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>19.29060543772809</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>62.709394562271896</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>19.29060543772809</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>62.709394562271896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
@@ -1234,8 +1389,35 @@
       <c r="P23" s="1">
         <v>1.9567422221750901</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="T23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>-1.9696699141100906</v>
+      </c>
+      <c r="V23" s="1">
+        <v>2.4118019029810966</v>
+      </c>
+      <c r="W23" s="1">
+        <v>-0.81667980760587722</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0.47393123088156019</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>-9.6450999693285002</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>5.7057601411083194</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>-9.6450999693285002</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>5.7057601411083194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8</v>
       </c>
@@ -1290,8 +1472,35 @@
       <c r="P24" s="1">
         <v>5.3835189174717266</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="T24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="1">
+        <v>1.4571067811865483</v>
+      </c>
+      <c r="V24" s="1">
+        <v>2.4118019029810966</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0.60415690832049607</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0.58836879051514934</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>-6.2183232740318619</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>9.1325368364049577</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>-6.2183232740318619</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>9.1325368364049577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
@@ -1346,8 +1555,35 @@
       <c r="P25" s="1">
         <v>7.923107925651907</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="T25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U25" s="1">
+        <v>3.8125000000000018</v>
+      </c>
+      <c r="V25" s="1">
+        <v>3.9995209904267179</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0.95323915266993953</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0.41079313978762133</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>-8.9157607988881473</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>16.540760798888151</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>-8.9157607988881473</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>16.540760798888151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10</v>
       </c>
@@ -1402,8 +1638,35 @@
       <c r="P26" s="1">
         <v>6.673107925651907</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U26" s="1">
+        <v>2.5625000000000022</v>
+      </c>
+      <c r="V26" s="1">
+        <v>3.9995209904267179</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0.64070172556504157</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0.56729846757079705</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>-10.165760798888147</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>15.290760798888151</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>-10.165760798888147</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>15.290760798888151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>11</v>
       </c>
@@ -1458,8 +1721,35 @@
       <c r="P27" s="2">
         <v>11.552785294600815</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="T27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="2">
+        <v>6.0000000000000027</v>
+      </c>
+      <c r="V27" s="2">
+        <v>3.4108029609531068</v>
+      </c>
+      <c r="W27" s="2">
+        <v>1.7591165683529773</v>
+      </c>
+      <c r="X27" s="2">
+        <v>0.17679299006034382</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>-4.8546972811359472</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>16.854697281135952</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>-4.8546972811359472</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>16.854697281135952</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12</v>
       </c>
@@ -1488,7 +1778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>13</v>
       </c>
@@ -1517,8 +1807,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
         <v>0</v>
@@ -1539,7 +1829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -1561,7 +1851,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>-1.4142135623730951</v>
       </c>
@@ -1586,7 +1876,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H34" s="1" t="s">
         <v>6</v>
       </c>
@@ -1603,7 +1893,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="H35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1622,7 +1912,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C36">
         <f>SQRT(2)</f>
         <v>1.4142135623730951</v>
@@ -1647,7 +1937,7 @@
       </c>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H37" s="2" t="s">
         <v>3</v>
       </c>
@@ -1670,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>1</v>
       </c>
@@ -1681,7 +1971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>-1</v>
       </c>
@@ -1709,13 +1999,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B762397B-9A60-4ECC-901E-EF4C93176228}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
@@ -1726,7 +2016,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1749,7 +2039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1772,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1795,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1818,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1841,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1864,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1887,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1910,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1933,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1956,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1979,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2002,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2025,7 +2315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2048,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2071,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2094,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2117,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2140,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2163,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2186,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2209,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2232,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2255,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2278,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2301,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2324,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2347,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2370,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2393,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2416,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2439,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2462,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2485,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2508,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2531,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2554,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2577,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2600,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2623,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2646,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2669,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
